--- a/data_in/bridges/Countries_1.to.Countries_2.EU2.xlsx
+++ b/data_in/bridges/Countries_1.to.Countries_2.EU2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul.Malliet\Documents\GitHub\CCS_Project\data\correspondences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/EmissionsIndicators/data_in/bridges/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DEE623-68AD-3E4A-83DE-6C926ADF2ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="3" r:id="rId1"/>
     <sheet name="Documentation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -23,6 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,154 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
-  <si>
-    <t>'AT'</t>
-  </si>
-  <si>
-    <t>'BE'</t>
-  </si>
-  <si>
-    <t>'BG'</t>
-  </si>
-  <si>
-    <t>'CY'</t>
-  </si>
-  <si>
-    <t>'CZ'</t>
-  </si>
-  <si>
-    <t>'DE'</t>
-  </si>
-  <si>
-    <t>'DK'</t>
-  </si>
-  <si>
-    <t>'EE'</t>
-  </si>
-  <si>
-    <t>'ES'</t>
-  </si>
-  <si>
-    <t>'FI'</t>
-  </si>
-  <si>
-    <t>'FR'</t>
-  </si>
-  <si>
-    <t>'GR'</t>
-  </si>
-  <si>
-    <t>'HR'</t>
-  </si>
-  <si>
-    <t>'HU'</t>
-  </si>
-  <si>
-    <t>'IE'</t>
-  </si>
-  <si>
-    <t>'IT'</t>
-  </si>
-  <si>
-    <t>'LT'</t>
-  </si>
-  <si>
-    <t>'LU'</t>
-  </si>
-  <si>
-    <t>'LV'</t>
-  </si>
-  <si>
-    <t>'MT'</t>
-  </si>
-  <si>
-    <t>'NL'</t>
-  </si>
-  <si>
-    <t>'PL'</t>
-  </si>
-  <si>
-    <t>'PT'</t>
-  </si>
-  <si>
-    <t>'RO'</t>
-  </si>
-  <si>
-    <t>'SE'</t>
-  </si>
-  <si>
-    <t>'SI'</t>
-  </si>
-  <si>
-    <t>'SK'</t>
-  </si>
-  <si>
-    <t>'GB'</t>
-  </si>
-  <si>
-    <t>'US'</t>
-  </si>
-  <si>
-    <t>'JP'</t>
-  </si>
-  <si>
-    <t>'CN'</t>
-  </si>
-  <si>
-    <t>'CA'</t>
-  </si>
-  <si>
-    <t>'KR'</t>
-  </si>
-  <si>
-    <t>'BR'</t>
-  </si>
-  <si>
-    <t>'IN'</t>
-  </si>
-  <si>
-    <t>'MX'</t>
-  </si>
-  <si>
-    <t>'RU'</t>
-  </si>
-  <si>
-    <t>'AU'</t>
-  </si>
-  <si>
-    <t>'CH'</t>
-  </si>
-  <si>
-    <t>'TR'</t>
-  </si>
-  <si>
-    <t>'TW'</t>
-  </si>
-  <si>
-    <t>'NO'</t>
-  </si>
-  <si>
-    <t>'ID'</t>
-  </si>
-  <si>
-    <t>'ZA'</t>
-  </si>
-  <si>
-    <t>'WA'</t>
-  </si>
-  <si>
-    <t>'WL'</t>
-  </si>
-  <si>
-    <t>'WE'</t>
-  </si>
-  <si>
-    <t>'WF'</t>
-  </si>
-  <si>
-    <t>'WM'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>Austria</t>
   </si>
@@ -512,13 +372,16 @@
     <t>EU emissions origins (&lt;5% are gathered in "autres")</t>
   </si>
   <si>
-    <t>Pologne</t>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>WD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,43 +530,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1001,367 +858,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GU33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:GU32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="134" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="134" width="9.5" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="137" max="195" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="197" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="195" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="197" max="200" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:203" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3"/>
+      <c r="GC1" s="3"/>
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3"/>
+      <c r="GF1" s="3"/>
+      <c r="GG1" s="3"/>
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3"/>
+      <c r="GJ1" s="3"/>
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3"/>
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3"/>
+      <c r="GQ1" s="3"/>
+      <c r="GR1" s="3"/>
+      <c r="GS1" s="3"/>
+    </row>
+    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
-      <c r="FS1" s="4"/>
-      <c r="FT1" s="4"/>
-      <c r="FU1" s="4"/>
-      <c r="FV1" s="4"/>
-      <c r="FW1" s="4"/>
-      <c r="FX1" s="4"/>
-      <c r="FY1" s="4"/>
-      <c r="FZ1" s="4"/>
-      <c r="GA1" s="4"/>
-      <c r="GB1" s="4"/>
-      <c r="GC1" s="4"/>
-      <c r="GD1" s="4"/>
-      <c r="GE1" s="4"/>
-      <c r="GF1" s="4"/>
-      <c r="GG1" s="4"/>
-      <c r="GH1" s="4"/>
-      <c r="GI1" s="4"/>
-      <c r="GJ1" s="4"/>
-      <c r="GK1" s="4"/>
-      <c r="GL1" s="4"/>
-      <c r="GM1" s="4"/>
-      <c r="GN1" s="4"/>
-      <c r="GO1" s="4"/>
-      <c r="GP1" s="4"/>
-      <c r="GQ1" s="4"/>
-      <c r="GR1" s="4"/>
-      <c r="GS1" s="4"/>
-    </row>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -1633,9 +1489,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>153</v>
+    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1936,13 +1792,13 @@
       <c r="GR3" s="2"/>
       <c r="GS3" s="2"/>
       <c r="GU3" s="1">
-        <f t="shared" ref="GU3:GU33" si="0">SUM(B3:GS3)-1</f>
+        <f t="shared" ref="GU3:GU32" si="0">SUM(B3:GS3)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>154</v>
+    <row r="4" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2247,9 +2103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>159</v>
+    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2554,9 +2410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>155</v>
+    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2861,9 +2717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>156</v>
+    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2926,28 +2782,28 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
         <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -3168,9 +3024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>157</v>
+    <row r="8" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3254,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
       </c>
       <c r="AE8" s="2">
         <v>0</v>
@@ -3475,138 +3331,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>151</v>
+    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
       </c>
       <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
         <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
@@ -3779,60 +3635,160 @@
       <c r="GS9" s="2"/>
       <c r="GU9" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
+    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
@@ -3986,60 +3942,160 @@
       <c r="GS10" s="2"/>
       <c r="GU10" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
+    <row r="11" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
@@ -4193,60 +4249,160 @@
       <c r="GS11" s="2"/>
       <c r="GU11" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
+    <row r="12" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -4400,60 +4556,209 @@
       <c r="GS12" s="2"/>
       <c r="GU12" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
+    <row r="13" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:AG13" si="1">1-SUM(B2:B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>1-SUM(AH2:AH12)</f>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" ref="AI13:AX13" si="2">1-SUM(AI2:AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AT13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AV13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AX13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -4607,11 +4912,10 @@
       <c r="GS13" s="2"/>
       <c r="GU13" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4817,8 +5121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5024,8 +5327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5231,8 +5533,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5438,8 +5739,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5645,8 +5945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5852,8 +6151,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6059,8 +6357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6266,8 +6563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6473,8 +6769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6680,8 +6975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -6887,8 +7181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -7094,8 +7387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -7301,8 +7593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7508,8 +7799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7715,8 +8005,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+    <row r="29" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -7922,8 +8211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -8129,8 +8417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="31" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8336,8 +8623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="2:203" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8543,220 +8829,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:203" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
-      <c r="BQ33" s="2"/>
-      <c r="BR33" s="2"/>
-      <c r="BS33" s="2"/>
-      <c r="BT33" s="2"/>
-      <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
-      <c r="BW33" s="2"/>
-      <c r="BX33" s="2"/>
-      <c r="BY33" s="2"/>
-      <c r="BZ33" s="2"/>
-      <c r="CA33" s="2"/>
-      <c r="CB33" s="2"/>
-      <c r="CC33" s="2"/>
-      <c r="CD33" s="2"/>
-      <c r="CE33" s="2"/>
-      <c r="CF33" s="2"/>
-      <c r="CG33" s="2"/>
-      <c r="CH33" s="2"/>
-      <c r="CI33" s="2"/>
-      <c r="CJ33" s="2"/>
-      <c r="CK33" s="2"/>
-      <c r="CL33" s="2"/>
-      <c r="CM33" s="2"/>
-      <c r="CN33" s="2"/>
-      <c r="CO33" s="2"/>
-      <c r="CP33" s="2"/>
-      <c r="CQ33" s="2"/>
-      <c r="CR33" s="2"/>
-      <c r="CS33" s="2"/>
-      <c r="CT33" s="2"/>
-      <c r="CU33" s="2"/>
-      <c r="CV33" s="2"/>
-      <c r="CW33" s="2"/>
-      <c r="CX33" s="2"/>
-      <c r="CY33" s="2"/>
-      <c r="CZ33" s="2"/>
-      <c r="DA33" s="2"/>
-      <c r="DB33" s="2"/>
-      <c r="DC33" s="2"/>
-      <c r="DD33" s="2"/>
-      <c r="DE33" s="2"/>
-      <c r="DF33" s="2"/>
-      <c r="DG33" s="2"/>
-      <c r="DH33" s="2"/>
-      <c r="DI33" s="2"/>
-      <c r="DJ33" s="2"/>
-      <c r="DK33" s="2"/>
-      <c r="DL33" s="2"/>
-      <c r="DM33" s="2"/>
-      <c r="DN33" s="2"/>
-      <c r="DO33" s="2"/>
-      <c r="DP33" s="2"/>
-      <c r="DQ33" s="2"/>
-      <c r="DR33" s="2"/>
-      <c r="DS33" s="2"/>
-      <c r="DT33" s="2"/>
-      <c r="DU33" s="2"/>
-      <c r="DV33" s="2"/>
-      <c r="DW33" s="2"/>
-      <c r="DX33" s="2"/>
-      <c r="DY33" s="2"/>
-      <c r="DZ33" s="2"/>
-      <c r="EA33" s="2"/>
-      <c r="EB33" s="2"/>
-      <c r="EC33" s="2"/>
-      <c r="ED33" s="2"/>
-      <c r="EE33" s="2"/>
-      <c r="EF33" s="2"/>
-      <c r="EG33" s="2"/>
-      <c r="EH33" s="2"/>
-      <c r="EI33" s="2"/>
-      <c r="EJ33" s="2"/>
-      <c r="EK33" s="2"/>
-      <c r="EL33" s="2"/>
-      <c r="EM33" s="2"/>
-      <c r="EN33" s="2"/>
-      <c r="EO33" s="2"/>
-      <c r="EP33" s="2"/>
-      <c r="EQ33" s="2"/>
-      <c r="ER33" s="2"/>
-      <c r="ES33" s="2"/>
-      <c r="ET33" s="2"/>
-      <c r="EU33" s="2"/>
-      <c r="EV33" s="2"/>
-      <c r="EW33" s="2"/>
-      <c r="EX33" s="2"/>
-      <c r="EY33" s="2"/>
-      <c r="EZ33" s="2"/>
-      <c r="FA33" s="2"/>
-      <c r="FB33" s="2"/>
-      <c r="FC33" s="2"/>
-      <c r="FD33" s="2"/>
-      <c r="FE33" s="2"/>
-      <c r="FF33" s="2"/>
-      <c r="FG33" s="2"/>
-      <c r="FH33" s="2"/>
-      <c r="FI33" s="2"/>
-      <c r="FJ33" s="2"/>
-      <c r="FK33" s="2"/>
-      <c r="FL33" s="2"/>
-      <c r="FM33" s="2"/>
-      <c r="FN33" s="2"/>
-      <c r="FO33" s="2"/>
-      <c r="FP33" s="2"/>
-      <c r="FQ33" s="2"/>
-      <c r="FR33" s="2"/>
-      <c r="FS33" s="2"/>
-      <c r="FT33" s="2"/>
-      <c r="FU33" s="2"/>
-      <c r="FV33" s="2"/>
-      <c r="FW33" s="2"/>
-      <c r="FX33" s="2"/>
-      <c r="FY33" s="2"/>
-      <c r="FZ33" s="2"/>
-      <c r="GA33" s="2"/>
-      <c r="GB33" s="2"/>
-      <c r="GC33" s="2"/>
-      <c r="GD33" s="2"/>
-      <c r="GE33" s="2"/>
-      <c r="GF33" s="2"/>
-      <c r="GG33" s="2"/>
-      <c r="GH33" s="2"/>
-      <c r="GI33" s="2"/>
-      <c r="GJ33" s="2"/>
-      <c r="GK33" s="2"/>
-      <c r="GL33" s="2"/>
-      <c r="GM33" s="2"/>
-      <c r="GN33" s="2"/>
-      <c r="GO33" s="2"/>
-      <c r="GP33" s="2"/>
-      <c r="GQ33" s="2"/>
-      <c r="GR33" s="2"/>
-      <c r="GS33" s="2"/>
-      <c r="GU33" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="GU2:GU33">
+  <conditionalFormatting sqref="GU2:GU32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:GS33">
+  <conditionalFormatting sqref="B2:GS32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8767,745 +8846,680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>98</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f>C$1&amp;A2&amp;C$1&amp;","</f>
         <v>"AT",</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>152</v>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G2" t="str">
         <f>C$1&amp;D2&amp;C$1&amp;","</f>
         <v>"Belgique",</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>52</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C50" si="0">C$1&amp;A3&amp;C$1&amp;","</f>
         <v>"BE",</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>153</v>
+      <c r="D3" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G9" si="1">C$1&amp;D3&amp;C$1&amp;","</f>
         <v>"Allemagne",</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>"BG",</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>154</v>
+      <c r="D4" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
         <v>"Espagne",</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>"CY",</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>70</v>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
         <v>"France",</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>"CZ",</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>155</v>
+      <c r="D6" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
         <v>"Italie",</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>"DE",</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>156</v>
+      <c r="D7" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>"Pays-Bas",</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>64</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>"DK",</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>157</v>
+      <c r="D8" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>"Royaume-Uni",</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>66</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>"EE",</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>151</v>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>"Autres",</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>94</v>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>"ES",</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>68</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>"FI",</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>"FR",</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>"GR",</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>97</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>"HR",</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>76</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>"HU",</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>"IE",</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>80</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>"IT",</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>"LT",</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>"LU",</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>82</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>"LV",</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>87</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>"MT",</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>88</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>"NL",</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>89</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>"PL",</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>90</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>"PT",</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>91</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>"RO",</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>95</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>"SE",</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>"SI",</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>92</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>"SK",</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>96</v>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>"GB",</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>85</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>"US",</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>67</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>"JP",</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>"CN",</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>59</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>"CA",</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>77</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>"KR",</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>53</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>"BR",</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>62</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>"IN",</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>69</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>"MX",</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>73</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>"RU",</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>50</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>"AU",</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>79</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>"CH",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>83</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>"TR",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>81</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>"TW",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>71</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>"NO",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>65</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>"ID",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>75</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>"ZA",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>51</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>"WA",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>54</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>"WL",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>60</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>"WE",</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>57</v>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>"WF",</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>63</v>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>"WM",</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
